--- a/head_words_excel/hpk_headwords_w.xlsx
+++ b/head_words_excel/hpk_headwords_w.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1042" sheetId="1" state="visible" r:id="rId2"/>
@@ -392,10 +392,10 @@
     <t>waitao</t>
   </si>
   <si>
-    <t>waiātea</t>
-  </si>
-  <si>
-    <t>waiatu</t>
+    <t>waitātea</t>
+  </si>
+  <si>
+    <t>waitau</t>
   </si>
   <si>
     <t>waitaua</t>
@@ -518,7 +518,7 @@
     <t>warea</t>
   </si>
   <si>
-    <t>warehanga</t>
+    <t>warehenga</t>
   </si>
   <si>
     <t>warehou</t>
@@ -1238,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1677,7 +1677,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2184,7 +2184,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2255,6 +2255,9 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>193</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2886,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
